--- a/data_output/prism_passive/all_passive_out_strain_AT_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>44.734911585078677</v>
+        <v>44.73491165642897</v>
       </c>
       <c r="C2">
-        <v>30.091721535755354</v>
+        <v>30.091721525784116</v>
       </c>
       <c r="D2">
-        <v>43.975712650985272</v>
+        <v>43.975712711080831</v>
       </c>
       <c r="E2">
-        <v>27.00146135635671</v>
+        <v>27.001461448372627</v>
       </c>
       <c r="F2">
-        <v>172.74364005346877</v>
+        <v>172.74364009800038</v>
       </c>
       <c r="G2">
-        <v>9.3577368709117099</v>
+        <v>9.3577368866275616</v>
       </c>
       <c r="H2">
-        <v>4.4624344584483469</v>
+        <v>4.4624345039518998</v>
       </c>
       <c r="I2">
-        <v>6.0350222508423004</v>
+        <v>6.035022298323053</v>
       </c>
       <c r="J2">
-        <v>11.36717071126407</v>
+        <v>11.367170692986862</v>
       </c>
       <c r="K2">
-        <v>8.7505626654686797</v>
+        <v>8.7505626796435401</v>
       </c>
       <c r="L2">
-        <v>3.0753709198859052</v>
+        <v>3.0753709720780362</v>
       </c>
       <c r="M2">
-        <v>18.938329231415022</v>
+        <v>18.938329340926305</v>
       </c>
       <c r="N2">
-        <v>1.9491754193428061</v>
+        <v>1.9491755110011257</v>
       </c>
       <c r="O2">
-        <v>-10.848625115331201</v>
+        <v>-10.848625025394572</v>
       </c>
       <c r="P2">
-        <v>56.272551919086133</v>
+        <v>56.272551863218709</v>
       </c>
       <c r="Q2">
-        <v>28.096338545890681</v>
+        <v>28.096338592530905</v>
       </c>
       <c r="R2">
-        <v>10.722787787963712</v>
+        <v>10.722787820974062</v>
       </c>
       <c r="S2">
-        <v>13.745313818788803</v>
+        <v>13.745313836524625</v>
       </c>
       <c r="T2">
-        <v>0.2162547227621644</v>
+        <v>0.21625477390849712</v>
       </c>
       <c r="U2">
-        <v>-18.708973282800372</v>
+        <v>-18.708973237477924</v>
       </c>
       <c r="V2">
-        <v>6.9842396629454617</v>
+        <v>6.9842396830955735</v>
       </c>
       <c r="W2">
-        <v>-1.4428536941671077</v>
+        <v>-1.4428536239293326</v>
       </c>
       <c r="X2">
-        <v>-9.4605536117224531</v>
+        <v>-9.4605535601437261</v>
       </c>
       <c r="Y2">
-        <v>-10.73693590386468</v>
+        <v>-10.736935810926402</v>
       </c>
       <c r="Z2">
-        <v>51.046211226974805</v>
+        <v>51.046211277776074</v>
       </c>
       <c r="AA2">
-        <v>-0.95557100118189908</v>
+        <v>-0.95557088788019584</v>
       </c>
       <c r="AB2">
-        <v>24.831575289701227</v>
+        <v>24.831575289955623</v>
       </c>
       <c r="AC2">
-        <v>2.0310543990631569</v>
+        <v>2.0310544074108861</v>
       </c>
       <c r="AD2">
-        <v>31.218759797150241</v>
+        <v>31.218759910295258</v>
       </c>
       <c r="AE2">
-        <v>80.447183672828729</v>
+        <v>80.44718367913319</v>
       </c>
       <c r="AF2">
-        <v>16.686618221931482</v>
+        <v>16.686618222086739</v>
       </c>
       <c r="AG2">
-        <v>2.4277644673053351</v>
+        <v>2.4277644976102257</v>
       </c>
       <c r="AH2">
-        <v>9.9382344236632303</v>
+        <v>9.9382344465747572</v>
       </c>
       <c r="AI2">
-        <v>-1.1630869164823965</v>
+        <v>-1.1630869066435241</v>
       </c>
       <c r="AJ2">
-        <v>10.812463744789651</v>
+        <v>10.812463782866001</v>
       </c>
       <c r="AK2">
-        <v>5.9175586497389254</v>
+        <v>5.9175586960814099</v>
       </c>
       <c r="AL2">
-        <v>2.247923539913129</v>
+        <v>2.2479236145898609</v>
       </c>
       <c r="AM2">
-        <v>4.274293547093265</v>
+        <v>4.2742936371126365</v>
       </c>
       <c r="AN2">
-        <v>3.3086663790349933</v>
+        <v>3.3086664797426781</v>
       </c>
       <c r="AO2">
-        <v>17.735206087715433</v>
+        <v>17.735206221061986</v>
       </c>
       <c r="AP2">
-        <v>6.1009148816877943</v>
+        <v>6.1009149449399427</v>
       </c>
       <c r="AQ2">
-        <v>3.0273569658923321</v>
+        <v>3.027357052759081</v>
       </c>
       <c r="AR2">
-        <v>6.8163875315427793</v>
+        <v>6.8163875528098394</v>
       </c>
       <c r="AS2">
-        <v>-5.9432413758217839</v>
+        <v>-5.9432413496800143</v>
       </c>
       <c r="AT2">
-        <v>-4.8180154483836235</v>
+        <v>-4.8180154218757982</v>
       </c>
       <c r="AU2">
-        <v>-6.1236908692111776</v>
+        <v>-6.1236908536274859</v>
       </c>
       <c r="AV2">
-        <v>19.240253337546591</v>
+        <v>19.240253380039306</v>
       </c>
       <c r="AW2">
-        <v>-2.2012503737662987</v>
+        <v>-2.2012503503699774</v>
       </c>
       <c r="AX2">
-        <v>3.584299342777908</v>
+        <v>3.584299421460297</v>
       </c>
       <c r="AY2">
-        <v>-10.99103746477077</v>
+        <v>-10.99103743914905</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>47.256692732080872</v>
+        <v>47.25669269030395</v>
       </c>
       <c r="C3">
-        <v>13.869903565608737</v>
+        <v>13.869903620346721</v>
       </c>
       <c r="D3">
-        <v>-9.341004825213199</v>
+        <v>-9.3410047996276795</v>
       </c>
       <c r="E3">
-        <v>25.151404689726974</v>
+        <v>25.15140470845796</v>
       </c>
       <c r="F3">
-        <v>25.293772485175669</v>
+        <v>25.293772517274842</v>
       </c>
       <c r="G3">
-        <v>4.1434249201144668</v>
+        <v>4.1434249644949288</v>
       </c>
       <c r="H3">
-        <v>3.8027148469051331</v>
+        <v>3.8027148901405758</v>
       </c>
       <c r="I3">
-        <v>5.2912064149717937</v>
+        <v>5.2912064503689962</v>
       </c>
       <c r="J3">
-        <v>10.408627702551779</v>
+        <v>10.408627710576829</v>
       </c>
       <c r="K3">
-        <v>-11.14943132553088</v>
+        <v>-11.14943128062847</v>
       </c>
       <c r="L3">
-        <v>-24.148367990708316</v>
+        <v>-24.148367943768591</v>
       </c>
       <c r="M3">
-        <v>26.336688309165023</v>
+        <v>26.337107565964523</v>
       </c>
       <c r="N3">
-        <v>7.0433306298237381</v>
+        <v>7.043330695426846</v>
       </c>
       <c r="O3">
-        <v>9.1606184639961334</v>
+        <v>9.1606185307708188</v>
       </c>
       <c r="P3">
-        <v>4.1224940840023399</v>
+        <v>4.1224941898834224</v>
       </c>
       <c r="Q3">
-        <v>24.079365302038074</v>
+        <v>24.079365368579552</v>
       </c>
       <c r="R3">
-        <v>13.270992523915707</v>
+        <v>13.270992562614529</v>
       </c>
       <c r="S3">
-        <v>13.496911366730984</v>
+        <v>13.496911398584352</v>
       </c>
       <c r="T3">
-        <v>6.4265590703626208</v>
+        <v>6.4265591178070052</v>
       </c>
       <c r="U3">
-        <v>4.0703310322664379</v>
+        <v>4.0703310721550974</v>
       </c>
       <c r="V3">
-        <v>-26.845380160555372</v>
+        <v>-26.845380130537187</v>
       </c>
       <c r="W3">
-        <v>-1.1502967328539482</v>
+        <v>-1.1502966157321377</v>
       </c>
       <c r="X3">
-        <v>18.466056521417222</v>
+        <v>18.466056786951921</v>
       </c>
       <c r="Y3">
-        <v>9.0214015039467839</v>
+        <v>9.0214015534508736</v>
       </c>
       <c r="Z3">
-        <v>4.0330154709508585</v>
+        <v>4.0330155194595383</v>
       </c>
       <c r="AA3">
-        <v>12.345561210669926</v>
+        <v>12.345561298388597</v>
       </c>
       <c r="AB3">
-        <v>15.761213063521382</v>
+        <v>15.761213099205404</v>
       </c>
       <c r="AC3">
-        <v>-1.5169596960855616</v>
+        <v>-1.5169596408047104</v>
       </c>
       <c r="AD3">
-        <v>23.634666489564658</v>
+        <v>23.63466658594189</v>
       </c>
       <c r="AE3">
-        <v>3.3649786914844548</v>
+        <v>3.3649786881883683</v>
       </c>
       <c r="AF3">
-        <v>5.4101457665806958</v>
+        <v>5.4101458274428156</v>
       </c>
       <c r="AG3">
-        <v>-6.3511204766454599</v>
+        <v>-6.3511204411747695</v>
       </c>
       <c r="AH3">
-        <v>-19.24697048948094</v>
+        <v>-19.24697047768429</v>
       </c>
       <c r="AI3">
-        <v>12.026653358891521</v>
+        <v>12.026653422844213</v>
       </c>
       <c r="AJ3">
-        <v>-5.4024219547422874</v>
+        <v>-5.4024218896799745</v>
       </c>
       <c r="AK3">
-        <v>-11.755992833968437</v>
+        <v>-11.755992797183389</v>
       </c>
       <c r="AL3">
-        <v>-14.639374066805647</v>
+        <v>-14.639374021789925</v>
       </c>
       <c r="AM3">
-        <v>8.4269245535996298</v>
+        <v>8.4269246430982001</v>
       </c>
       <c r="AN3">
-        <v>18.036741008119513</v>
+        <v>18.03674106115874</v>
       </c>
       <c r="AO3">
-        <v>2.9303284035034816</v>
+        <v>2.9303284890813339</v>
       </c>
       <c r="AP3">
-        <v>7.7313880761265592</v>
+        <v>7.7313881727182521</v>
       </c>
       <c r="AQ3">
-        <v>-2.089948566204253</v>
+        <v>-2.0899485485438127</v>
       </c>
       <c r="AR3">
-        <v>7.6588874865381156</v>
+        <v>7.6588875411337227</v>
       </c>
       <c r="AS3">
-        <v>9.3471071148624212</v>
+        <v>9.3471071507371395</v>
       </c>
       <c r="AT3">
-        <v>4.0689775198361104</v>
+        <v>4.0689775537778834</v>
       </c>
       <c r="AU3">
-        <v>-9.5419792619663593</v>
+        <v>-9.5419792159758909</v>
       </c>
       <c r="AV3">
-        <v>-3.2807630024928458</v>
+        <v>-3.2807629087843209</v>
       </c>
       <c r="AW3">
-        <v>9.1251518579235249</v>
+        <v>9.1251519398902889</v>
       </c>
       <c r="AX3">
-        <v>9.3893503235235105</v>
+        <v>9.389350394606808</v>
       </c>
       <c r="AY3">
-        <v>3.4158822842388177</v>
+        <v>3.4158823449441758</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_AT_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>44.73491165642897</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>30.091721525784116</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>43.975712711080831</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>27.001461448372627</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>172.74364009800038</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9.3577368866275616</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>4.4624345039518998</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.035022298323053</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>11.367170692986862</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.7505626796435401</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.0753709720780362</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>18.938329340926305</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.9491755110011257</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-10.848625025394572</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>56.272551863218709</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>28.096338592530905</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>10.722787820974062</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>13.745313836524625</v>
+        <v>13.745244317001818</v>
       </c>
       <c r="T2">
         <v>0.21625477390849712</v>
@@ -576,147 +465,144 @@
         <v>6.9842396830955735</v>
       </c>
       <c r="W2">
-        <v>-1.4428536239293326</v>
+        <v>-1.4429523489249985</v>
       </c>
       <c r="X2">
-        <v>-9.4605535601437261</v>
+        <v>-9.4604588927877842</v>
       </c>
       <c r="Y2">
         <v>-10.736935810926402</v>
       </c>
       <c r="Z2">
-        <v>51.046211277776074</v>
+        <v>51.046316364824953</v>
       </c>
       <c r="AA2">
-        <v>-0.95557088788019584</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>24.831575289955623</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.0310544074108861</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>31.218759910295258</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>80.44718367913319</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>16.686618222086739</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.4277644976102257</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>9.9382344465747572</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>-1.1630869066435241</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>10.812463782866001</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>5.9175586960814099</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.2479236145898609</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>4.2742936371126365</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.3086664797426781</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>17.735206221061986</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>6.1009149449399427</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.027357052759081</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>6.8163875528098394</v>
+        <v>6.8164506133907636</v>
       </c>
       <c r="AS2">
         <v>-5.9432413496800143</v>
       </c>
       <c r="AT2">
-        <v>-4.8180154218757982</v>
+        <v>-4.8180716271946356</v>
       </c>
       <c r="AU2">
-        <v>-6.1236908536274859</v>
+        <v>-6.1236380600833282</v>
       </c>
       <c r="AV2">
-        <v>19.240253380039306</v>
+        <v>19.240144921630009</v>
       </c>
       <c r="AW2">
-        <v>-2.2012503503699774</v>
+        <v>-2.2011491719222098</v>
       </c>
       <c r="AX2">
-        <v>3.584299421460297</v>
+        <v>3.5843966831195719</v>
       </c>
       <c r="AY2">
-        <v>-10.99103743914905</v>
+        <v>-10.990986741307033</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>47.25669269030395</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13.869903620346721</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-9.3410047996276795</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>25.15140470845796</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>25.293772517274842</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.1434249644949288</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.8027148901405758</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.2912064503689962</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.408627710576829</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-11.14943128062847</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-24.148367943768591</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>26.337107565964523</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>7.043330695426846</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.1606185307708188</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4.1224941898834224</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>24.079365368579552</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>13.270992562614529</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>13.496911398584352</v>
@@ -728,94 +614,94 @@
         <v>4.0703310721550974</v>
       </c>
       <c r="V3">
-        <v>-26.845380130537187</v>
+        <v>-26.845342466511447</v>
       </c>
       <c r="W3">
-        <v>-1.1502966157321377</v>
+        <v>-1.1502488577990153</v>
       </c>
       <c r="X3">
-        <v>18.466056786951921</v>
+        <v>18.465877011249688</v>
       </c>
       <c r="Y3">
-        <v>9.0214015534508736</v>
+        <v>-37.104686916073874</v>
       </c>
       <c r="Z3">
-        <v>4.0330155194595383</v>
+        <v>-8.7625674258345896</v>
       </c>
       <c r="AA3">
-        <v>12.345561298388597</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>15.761213099205404</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-1.5169596408047104</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>23.63466658594189</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>3.3649786881883683</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.4101458274428156</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-6.3511204411747695</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-19.24697047768429</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>12.026653422844213</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-5.4024218896799745</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-11.755992797183389</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-14.639374021789925</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>8.4269246430982001</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>18.03674106115874</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>2.9303284890813339</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>7.7313881727182521</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-2.0899485485438127</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>7.6588875411337227</v>
+        <v>7.6588202484403194</v>
       </c>
       <c r="AS3">
-        <v>9.3471071507371395</v>
+        <v>9.3471561255064373</v>
       </c>
       <c r="AT3">
         <v>4.0689775537778834</v>
       </c>
       <c r="AU3">
-        <v>-9.5419792159758909</v>
+        <v>-9.5419264021402146</v>
       </c>
       <c r="AV3">
-        <v>-3.2807629087843209</v>
+        <v>-3.2807178584441772</v>
       </c>
       <c r="AW3">
         <v>9.1251519398902889</v>
       </c>
       <c r="AX3">
-        <v>9.389350394606808</v>
+        <v>-1.7397226429800545</v>
       </c>
       <c r="AY3">
-        <v>3.4158823449441758</v>
+        <v>-51.830087120722283</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_AT_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>44.734820399622116</v>
+        <v>-10.848549352678246</v>
       </c>
       <c r="C2">
-        <v>14.318986049695242</v>
+        <v>10.722787820974062</v>
       </c>
       <c r="D2">
-        <v>43.975791646439092</v>
+        <v>3.3085748382100282</v>
       </c>
       <c r="E2">
-        <v>27.001360866714215</v>
+        <v>3.027274908548629</v>
       </c>
       <c r="F2">
         <v>172.74364005346877</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>47.256692732080872</v>
+        <v>9.1606185307708188</v>
       </c>
       <c r="C3">
-        <v>0.51389868085433243</v>
+        <v>13.270904995222017</v>
       </c>
       <c r="D3">
-        <v>-9.3410529000590223</v>
+        <v>18.036638296737841</v>
       </c>
       <c r="E3">
-        <v>25.151488355495189</v>
+        <v>-2.1551504644406752</v>
       </c>
       <c r="F3">
         <v>25.293772485175669</v>

--- a/data_output/prism_passive/all_passive_out_strain_AT_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>44.734820399622116</v>
+        <v>49.301159418377814</v>
       </c>
       <c r="C2">
-        <v>14.318986049695242</v>
+        <v>-6.6144264138497819</v>
       </c>
       <c r="D2">
-        <v>43.975791646439092</v>
+        <v>0.59876391186929201</v>
       </c>
       <c r="E2">
-        <v>27.001360866714215</v>
+        <v>8.8685582203942523</v>
       </c>
       <c r="F2">
         <v>172.74364005346877</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>47.256692732080872</v>
+        <v>46.018332723408086</v>
       </c>
       <c r="C3">
-        <v>0.51389868085433243</v>
+        <v>9.1606185307708188</v>
       </c>
       <c r="D3">
-        <v>-9.3410529000590223</v>
+        <v>-19.797397289708901</v>
       </c>
       <c r="E3">
-        <v>25.151488355495189</v>
+        <v>18.036638296737841</v>
       </c>
       <c r="F3">
         <v>25.293772485175669</v>

--- a/data_output/prism_passive/all_passive_out_strain_AT_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>46.985828733958876</v>
+      </c>
+      <c r="C2">
+        <v>14.318986040932947</v>
+      </c>
+      <c r="D2">
+        <v>57.798158624701955</v>
+      </c>
+      <c r="E2">
+        <v>49.255825502772041</v>
+      </c>
+      <c r="F2">
+        <v>172.74364009800038</v>
+      </c>
+      <c r="G2">
+        <v>9.3576456806878454</v>
+      </c>
+      <c r="H2">
+        <v>5.3512453543929848</v>
+      </c>
+      <c r="I2">
+        <v>13.249910886752305</v>
+      </c>
+      <c r="J2">
+        <v>12.410132133594914</v>
+      </c>
+      <c r="K2">
+        <v>-11.360657911353346</v>
+      </c>
+      <c r="L2">
+        <v>7.6672005183233081</v>
+      </c>
+      <c r="M2">
+        <v>18.938329340926305</v>
+      </c>
+      <c r="N2">
         <v>49.301159418377814</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>-6.6144264138497819</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>56.272551863218709</v>
+      </c>
+      <c r="Q2">
+        <v>-33.485561081760139</v>
+      </c>
+      <c r="R2">
+        <v>10.722787820974062</v>
+      </c>
+      <c r="S2">
+        <v>17.394344656707602</v>
+      </c>
+      <c r="T2">
+        <v>0.21625477390849712</v>
+      </c>
+      <c r="U2">
+        <v>-16.954581084110274</v>
+      </c>
+      <c r="V2">
+        <v>17.60869924100535</v>
+      </c>
+      <c r="W2">
+        <v>21.971409063685666</v>
+      </c>
+      <c r="X2">
+        <v>1.9327227497304804</v>
+      </c>
+      <c r="Y2">
+        <v>-9.2178825588085598</v>
+      </c>
+      <c r="Z2">
+        <v>51.046316364824953</v>
+      </c>
+      <c r="AA2">
+        <v>0.91970718772349858</v>
+      </c>
+      <c r="AB2">
+        <v>58.623377925402366</v>
+      </c>
+      <c r="AC2">
+        <v>16.679840975517848</v>
+      </c>
+      <c r="AD2">
+        <v>55.357040052134302</v>
+      </c>
+      <c r="AE2">
+        <v>80.44718367913319</v>
+      </c>
+      <c r="AF2">
+        <v>16.6867180808248</v>
+      </c>
+      <c r="AG2">
+        <v>3.3574706001953607</v>
+      </c>
+      <c r="AH2">
+        <v>18.100714762696953</v>
+      </c>
+      <c r="AI2">
+        <v>-0.29383182460821311</v>
+      </c>
+      <c r="AJ2">
+        <v>13.84162544866683</v>
+      </c>
+      <c r="AK2">
+        <v>11.237272512338032</v>
+      </c>
+      <c r="AL2">
+        <v>2.2479903232541032</v>
+      </c>
+      <c r="AM2">
         <v>0.59876391186929201</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>8.8685582203942523</v>
       </c>
-      <c r="F2">
-        <v>172.74364005346877</v>
-      </c>
-      <c r="G2">
-        <v>9.3576456649720079</v>
-      </c>
-      <c r="H2">
-        <v>4.4624344584483469</v>
-      </c>
-      <c r="I2">
-        <v>6.0350920588609629</v>
-      </c>
-      <c r="J2">
-        <v>11.367123530502258</v>
-      </c>
-      <c r="K2">
-        <v>-16.840904961323172</v>
-      </c>
-      <c r="L2">
-        <v>3.0753395578485483</v>
-      </c>
-      <c r="M2">
-        <v>18.938329231415022</v>
-      </c>
-      <c r="N2">
-        <v>45.766451845693467</v>
-      </c>
-      <c r="O2">
-        <v>-10.848549442614953</v>
-      </c>
-      <c r="P2">
-        <v>56.272551919086133</v>
-      </c>
-      <c r="Q2">
-        <v>-33.485561105978228</v>
-      </c>
-      <c r="R2">
-        <v>10.722787787963712</v>
-      </c>
-      <c r="S2">
-        <v>13.745244299266007</v>
-      </c>
-      <c r="T2">
-        <v>0.2162547227621644</v>
-      </c>
-      <c r="U2">
-        <v>-18.708973282800372</v>
-      </c>
-      <c r="V2">
-        <v>6.9842396629454617</v>
-      </c>
-      <c r="W2">
-        <v>-1.3443327381580927</v>
-      </c>
-      <c r="X2">
-        <v>-9.4604589443665645</v>
-      </c>
-      <c r="Y2">
-        <v>-10.73693590386468</v>
-      </c>
-      <c r="Z2">
-        <v>51.046316314023656</v>
-      </c>
-      <c r="AA2">
-        <v>-0.95562963271618606</v>
-      </c>
-      <c r="AB2">
-        <v>58.623377925079097</v>
-      </c>
-      <c r="AC2">
-        <v>2.0311114992205925</v>
-      </c>
-      <c r="AD2">
-        <v>31.218867820892971</v>
-      </c>
-      <c r="AE2">
-        <v>80.447183672828729</v>
-      </c>
-      <c r="AF2">
-        <v>16.686718080669543</v>
-      </c>
-      <c r="AG2">
-        <v>2.4277264560517278</v>
-      </c>
-      <c r="AH2">
-        <v>9.9383046916513376</v>
-      </c>
-      <c r="AI2">
-        <v>-1.1630869164823965</v>
-      </c>
-      <c r="AJ2">
-        <v>8.1747056431677159</v>
-      </c>
-      <c r="AK2">
-        <v>5.9175586497389254</v>
-      </c>
-      <c r="AL2">
-        <v>2.2479902485773229</v>
-      </c>
-      <c r="AM2">
-        <v>-2.3249493858511583</v>
-      </c>
-      <c r="AN2">
-        <v>3.308574737502433</v>
-      </c>
       <c r="AO2">
-        <v>17.735352200949336</v>
+        <v>17.735352334296053</v>
       </c>
       <c r="AP2">
-        <v>6.1009148816877943</v>
+        <v>6.1009149449399427</v>
       </c>
       <c r="AQ2">
-        <v>3.0272748216819494</v>
+        <v>3.027274908548629</v>
       </c>
       <c r="AR2">
-        <v>6.8164505921236902</v>
+        <v>11.564657607456091</v>
       </c>
       <c r="AS2">
-        <v>-5.9432413758217839</v>
+        <v>-5.9432413496800143</v>
       </c>
       <c r="AT2">
-        <v>-4.8180716537024448</v>
+        <v>-2.8795685445506738</v>
       </c>
       <c r="AU2">
-        <v>-6.1236380756670288</v>
+        <v>5.5106992276975788</v>
       </c>
       <c r="AV2">
-        <v>19.336775445499399</v>
+        <v>40.737179778446801</v>
       </c>
       <c r="AW2">
-        <v>-2.2011491953185556</v>
+        <v>10.205477483019521</v>
       </c>
       <c r="AX2">
-        <v>3.5843966044371096</v>
+        <v>5.0334031585231909</v>
       </c>
       <c r="AY2">
-        <v>-10.990986766928765</v>
+        <v>-10.990986741307033</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>47.25669269030395</v>
+      </c>
+      <c r="C3">
+        <v>9.0819464025119796</v>
+      </c>
+      <c r="D3">
+        <v>-9.3410528744735135</v>
+      </c>
+      <c r="E3">
+        <v>25.151488374226183</v>
+      </c>
+      <c r="F3">
+        <v>31.996227255731235</v>
+      </c>
+      <c r="G3">
+        <v>9.7942802658895065</v>
+      </c>
+      <c r="H3">
+        <v>3.8027540157190574</v>
+      </c>
+      <c r="I3">
+        <v>5.2912933012824785</v>
+      </c>
+      <c r="J3">
+        <v>-4.4632617604139959</v>
+      </c>
+      <c r="K3">
+        <v>-11.14943128062847</v>
+      </c>
+      <c r="L3">
+        <v>-24.148367943768591</v>
+      </c>
+      <c r="M3">
+        <v>38.788202012745977</v>
+      </c>
+      <c r="N3">
         <v>46.018332723408086</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>9.1606185307708188</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>8.3202664592033244</v>
+      </c>
+      <c r="Q3">
+        <v>26.826071640348736</v>
+      </c>
+      <c r="R3">
+        <v>22.640369358547002</v>
+      </c>
+      <c r="S3">
+        <v>13.496911398584352</v>
+      </c>
+      <c r="T3">
+        <v>7.4939340176221929</v>
+      </c>
+      <c r="U3">
+        <v>4.0703310721550974</v>
+      </c>
+      <c r="V3">
+        <v>-26.845342466511447</v>
+      </c>
+      <c r="W3">
+        <v>-1.1448479197826318</v>
+      </c>
+      <c r="X3">
+        <v>18.465877011249688</v>
+      </c>
+      <c r="Y3">
+        <v>-37.104686916073874</v>
+      </c>
+      <c r="Z3">
+        <v>-8.4135446124231148</v>
+      </c>
+      <c r="AA3">
+        <v>12.345647702762674</v>
+      </c>
+      <c r="AB3">
+        <v>24.826034112500093</v>
+      </c>
+      <c r="AC3">
+        <v>-1.5170183781694964</v>
+      </c>
+      <c r="AD3">
+        <v>23.634742062041234</v>
+      </c>
+      <c r="AE3">
+        <v>12.520199516481281</v>
+      </c>
+      <c r="AF3">
+        <v>11.242203113582764</v>
+      </c>
+      <c r="AG3">
+        <v>-6.3511204411747695</v>
+      </c>
+      <c r="AH3">
+        <v>-19.243243267325138</v>
+      </c>
+      <c r="AI3">
+        <v>8.0569311182853145</v>
+      </c>
+      <c r="AJ3">
+        <v>-5.4024218896799745</v>
+      </c>
+      <c r="AK3">
+        <v>-11.756018316382495</v>
+      </c>
+      <c r="AL3">
+        <v>-4.553586558692805</v>
+      </c>
+      <c r="AM3">
         <v>-19.797397289708901</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>18.036638296737841</v>
       </c>
-      <c r="F3">
-        <v>25.293772485175669</v>
-      </c>
-      <c r="G3">
-        <v>4.1435052015195799</v>
-      </c>
-      <c r="H3">
-        <v>3.8027539724835981</v>
-      </c>
-      <c r="I3">
-        <v>5.2912932658852467</v>
-      </c>
-      <c r="J3">
-        <v>-4.463261767358083</v>
-      </c>
-      <c r="K3">
-        <v>-11.14943132553088</v>
-      </c>
-      <c r="L3">
-        <v>-24.148367990708316</v>
-      </c>
-      <c r="M3">
-        <v>26.336567701894971</v>
-      </c>
-      <c r="N3">
-        <v>46.018332633918568</v>
-      </c>
-      <c r="O3">
-        <v>9.1606184639961334</v>
-      </c>
-      <c r="P3">
-        <v>4.1224940840023399</v>
-      </c>
-      <c r="Q3">
-        <v>24.079491939740794</v>
-      </c>
-      <c r="R3">
-        <v>13.270904956523225</v>
-      </c>
-      <c r="S3">
-        <v>13.496911366730984</v>
-      </c>
-      <c r="T3">
-        <v>6.4265590703626208</v>
-      </c>
-      <c r="U3">
-        <v>4.0703310322664379</v>
-      </c>
-      <c r="V3">
-        <v>-26.84534249652965</v>
-      </c>
-      <c r="W3">
-        <v>-1.1448480153095888</v>
-      </c>
-      <c r="X3">
-        <v>18.465876745715391</v>
-      </c>
-      <c r="Y3">
-        <v>-37.104686944633173</v>
-      </c>
-      <c r="Z3">
-        <v>-8.7625674683769255</v>
-      </c>
-      <c r="AA3">
-        <v>12.345647615043935</v>
-      </c>
-      <c r="AB3">
-        <v>14.921473737284114</v>
-      </c>
-      <c r="AC3">
-        <v>-1.5170184334503143</v>
-      </c>
-      <c r="AD3">
-        <v>23.634741965663945</v>
-      </c>
-      <c r="AE3">
-        <v>3.3650595130688998</v>
-      </c>
-      <c r="AF3">
-        <v>5.4101457665806958</v>
-      </c>
-      <c r="AG3">
-        <v>-6.3511204766454599</v>
-      </c>
-      <c r="AH3">
-        <v>-19.243243258159907</v>
-      </c>
-      <c r="AI3">
-        <v>8.0569310565988186</v>
-      </c>
-      <c r="AJ3">
-        <v>-5.4024219547422874</v>
-      </c>
-      <c r="AK3">
-        <v>-11.756018353167532</v>
-      </c>
-      <c r="AL3">
-        <v>-14.639374066805647</v>
-      </c>
-      <c r="AM3">
-        <v>-19.797397355910341</v>
-      </c>
-      <c r="AN3">
-        <v>18.036638243698665</v>
-      </c>
       <c r="AO3">
-        <v>2.930224580205405</v>
+        <v>6.8196805863861734</v>
       </c>
       <c r="AP3">
-        <v>7.7314793802585573</v>
+        <v>10.096537085320126</v>
       </c>
       <c r="AQ3">
-        <v>-2.1551504693184782</v>
+        <v>9.2166417836742944</v>
       </c>
       <c r="AR3">
-        <v>7.6588201938447469</v>
+        <v>7.6588202484403194</v>
       </c>
       <c r="AS3">
-        <v>9.3471560896317047</v>
+        <v>10.923394386202833</v>
       </c>
       <c r="AT3">
-        <v>4.0689775198361104</v>
+        <v>4.0689775537778834</v>
       </c>
       <c r="AU3">
-        <v>-9.5419264481307096</v>
+        <v>-9.5419264021402146</v>
       </c>
       <c r="AV3">
-        <v>-3.2637785392374044</v>
+        <v>-3.2637784445770257</v>
       </c>
       <c r="AW3">
-        <v>9.1251518579235249</v>
+        <v>9.1251519398902889</v>
       </c>
       <c r="AX3">
-        <v>-1.7397227068314653</v>
+        <v>-1.7397226429800545</v>
       </c>
       <c r="AY3">
-        <v>-51.830087148998125</v>
+        <v>-51.676357420037689</v>
       </c>
     </row>
   </sheetData>
